--- a/WRITTEN PREMIUM 2024.xlsx
+++ b/WRITTEN PREMIUM 2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12210"/>
+    <workbookView windowWidth="14400" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NEW BUSINES" sheetId="1" r:id="rId1"/>
@@ -1411,10 +1411,10 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="\ #\ ###\ ###"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="32">
@@ -2370,49 +2370,49 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2423,33 +2423,33 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="58" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2461,7 +2461,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2470,7 +2470,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2485,8 +2485,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2778,10 +2778,10 @@
   <sheetPr/>
   <dimension ref="A1:AE1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M$1:M$1048576"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O$1:O$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -2799,8 +2799,8 @@
     <col min="12" max="12" width="12.5714285714286" customWidth="1"/>
     <col min="13" max="13" width="13.8571428571429" style="56" customWidth="1"/>
     <col min="14" max="14" width="17.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="11.5714285714286" style="57" customWidth="1"/>
-    <col min="16" max="16" width="12.1428571428571" style="23" customWidth="1"/>
+    <col min="15" max="15" width="11.5714285714286" style="23" customWidth="1"/>
+    <col min="16" max="16" width="12.1428571428571" style="57" customWidth="1"/>
     <col min="17" max="18" width="13.4285714285714" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="22" width="26.8571428571429" customWidth="1"/>
@@ -15000,8 +15000,8 @@
   <sheetPr/>
   <dimension ref="A1:Q1127"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D198" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>

--- a/WRITTEN PREMIUM 2024.xlsx
+++ b/WRITTEN PREMIUM 2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12210" activeTab="2"/>
+    <workbookView windowWidth="14400" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NEW BUSINES" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="455">
   <si>
     <t>Client Name</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>COMMUNITY BASED SOCIOTHERAPY</t>
+  </si>
+  <si>
+    <t>Product_target</t>
   </si>
   <si>
     <t>Target</t>
@@ -2971,7 +2974,7 @@
       </c>
       <c r="X2" s="18">
         <f ca="1" t="shared" ref="X2:X8" si="6">TODAY()-O2</f>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Y2" s="18">
         <f t="shared" ref="Y2:Y8" si="7">O2-W2</f>
@@ -3060,7 +3063,7 @@
       </c>
       <c r="X3" s="18">
         <f ca="1" t="shared" si="6"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y3" s="18">
         <f t="shared" si="7"/>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="X4" s="18">
         <f ca="1" t="shared" si="6"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="18">
         <f t="shared" si="7"/>
@@ -3240,7 +3243,7 @@
       </c>
       <c r="X5" s="18">
         <f ca="1" t="shared" si="6"/>
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Y5" s="18">
         <f t="shared" si="7"/>
@@ -3329,7 +3332,7 @@
       </c>
       <c r="X6" s="18">
         <f ca="1" t="shared" si="6"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y6" s="18">
         <f t="shared" si="7"/>
@@ -3418,7 +3421,7 @@
       </c>
       <c r="X7" s="18">
         <f ca="1" t="shared" si="6"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y7" s="18">
         <f t="shared" si="7"/>
@@ -3507,7 +3510,7 @@
       </c>
       <c r="X8" s="18">
         <f ca="1" t="shared" si="6"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="18">
         <f t="shared" si="7"/>
@@ -3670,7 +3673,7 @@
       </c>
       <c r="X10" s="18">
         <f ca="1">TODAY()-O10</f>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Y10" s="18">
         <f>O10-W10</f>
@@ -3764,7 +3767,7 @@
       </c>
       <c r="X11" s="18">
         <f ca="1">TODAY()-O11</f>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Y11" s="18">
         <f>O11-W11</f>
@@ -3858,7 +3861,7 @@
       </c>
       <c r="X12" s="18">
         <f ca="1">TODAY()-O12</f>
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y12" s="18">
         <f>O12-W12</f>
@@ -3952,7 +3955,7 @@
       </c>
       <c r="X13" s="18">
         <f ca="1">TODAY()-O13</f>
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Y13" s="18">
         <f>O13-W13</f>
@@ -4120,7 +4123,7 @@
       </c>
       <c r="X15" s="18">
         <f ca="1">TODAY()-O15</f>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y15" s="18">
         <f>O15-W15</f>
@@ -4215,7 +4218,7 @@
       </c>
       <c r="X16" s="18">
         <f ca="1">TODAY()-O16</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y16" s="18">
         <f>O16-W16</f>
@@ -4383,7 +4386,7 @@
       </c>
       <c r="X18" s="18">
         <f ca="1" t="shared" ref="X18:X23" si="14">TODAY()-O18</f>
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Y18" s="18">
         <f>O18-W18</f>
@@ -4476,7 +4479,7 @@
       </c>
       <c r="X19" s="18">
         <f ca="1" t="shared" si="14"/>
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Y19" s="18">
         <f>O19-W19</f>
@@ -4568,7 +4571,7 @@
       <c r="W20" s="79"/>
       <c r="X20" s="18">
         <f ca="1" t="shared" si="14"/>
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Y20" s="18"/>
       <c r="Z20" s="63">
@@ -4661,7 +4664,7 @@
       <c r="W21" s="79"/>
       <c r="X21" s="18">
         <f ca="1" t="shared" si="14"/>
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Y21" s="18">
         <v>0</v>
@@ -4754,7 +4757,7 @@
       </c>
       <c r="X22" s="18">
         <f ca="1" t="shared" si="14"/>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Y22" s="18">
         <f>O22-W22</f>
@@ -4850,7 +4853,7 @@
       </c>
       <c r="X23" s="18">
         <f ca="1" t="shared" si="14"/>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y23" s="18">
         <f>O23-W23</f>
@@ -5018,7 +5021,7 @@
       </c>
       <c r="X25" s="18">
         <f ca="1" t="shared" ref="X25:X70" si="18">TODAY()-O25</f>
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Y25" s="18">
         <f t="shared" ref="Y25:Y37" si="19">O25-W25</f>
@@ -5114,7 +5117,7 @@
       </c>
       <c r="X26" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Y26" s="18">
         <f t="shared" si="19"/>
@@ -5205,7 +5208,7 @@
       </c>
       <c r="X27" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y27" s="18">
         <f t="shared" si="19"/>
@@ -5295,7 +5298,7 @@
       </c>
       <c r="X28" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y28" s="18">
         <f t="shared" si="19"/>
@@ -5384,7 +5387,7 @@
       </c>
       <c r="X29" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" si="19"/>
@@ -5474,7 +5477,7 @@
       </c>
       <c r="X30" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Y30" s="18">
         <f t="shared" si="19"/>
@@ -5565,7 +5568,7 @@
       </c>
       <c r="X31" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Y31" s="18">
         <f t="shared" si="19"/>
@@ -5655,7 +5658,7 @@
       </c>
       <c r="X32" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Y32" s="18">
         <f t="shared" si="19"/>
@@ -5749,7 +5752,7 @@
       </c>
       <c r="X33" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Y33" s="18">
         <f t="shared" si="19"/>
@@ -5839,7 +5842,7 @@
       </c>
       <c r="X34" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Y34" s="18">
         <f t="shared" si="19"/>
@@ -5929,7 +5932,7 @@
       </c>
       <c r="X35" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Y35" s="18">
         <f t="shared" si="19"/>
@@ -6020,7 +6023,7 @@
       </c>
       <c r="X36" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Y36" s="18">
         <f t="shared" si="19"/>
@@ -6110,7 +6113,7 @@
       </c>
       <c r="X37" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y37" s="18">
         <f t="shared" si="19"/>
@@ -6198,7 +6201,7 @@
       <c r="W38" s="79"/>
       <c r="X38" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y38" s="18"/>
       <c r="Z38" s="63">
@@ -6285,7 +6288,7 @@
       </c>
       <c r="X39" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y39" s="18">
         <f t="shared" ref="Y39:Y70" si="21">O39-W39</f>
@@ -6375,7 +6378,7 @@
       </c>
       <c r="X40" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Y40" s="18">
         <f t="shared" si="21"/>
@@ -6465,7 +6468,7 @@
       </c>
       <c r="X41" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Y41" s="18">
         <f t="shared" si="21"/>
@@ -6559,7 +6562,7 @@
       </c>
       <c r="X42" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y42" s="18">
         <f t="shared" si="21"/>
@@ -6649,7 +6652,7 @@
       </c>
       <c r="X43" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y43" s="18">
         <f t="shared" si="21"/>
@@ -6739,7 +6742,7 @@
       </c>
       <c r="X44" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y44" s="18">
         <f t="shared" si="21"/>
@@ -6829,7 +6832,7 @@
       </c>
       <c r="X45" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Y45" s="18">
         <f t="shared" si="21"/>
@@ -6919,7 +6922,7 @@
       </c>
       <c r="X46" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y46" s="18">
         <f t="shared" si="21"/>
@@ -7009,7 +7012,7 @@
       </c>
       <c r="X47" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y47" s="18">
         <f t="shared" si="21"/>
@@ -7099,7 +7102,7 @@
       </c>
       <c r="X48" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y48" s="18">
         <f t="shared" si="21"/>
@@ -7189,7 +7192,7 @@
       </c>
       <c r="X49" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y49" s="18">
         <f t="shared" si="21"/>
@@ -7278,7 +7281,7 @@
       </c>
       <c r="X50" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Y50" s="18">
         <f t="shared" si="21"/>
@@ -7367,7 +7370,7 @@
       </c>
       <c r="X51" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Y51" s="18">
         <f t="shared" si="21"/>
@@ -7456,7 +7459,7 @@
       </c>
       <c r="X52" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Y52" s="18">
         <f t="shared" si="21"/>
@@ -7545,7 +7548,7 @@
       </c>
       <c r="X53" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="18">
         <f t="shared" si="21"/>
@@ -7634,7 +7637,7 @@
       </c>
       <c r="X54" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y54" s="18">
         <f t="shared" si="21"/>
@@ -7723,7 +7726,7 @@
       </c>
       <c r="X55" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Y55" s="18">
         <f t="shared" si="21"/>
@@ -7812,7 +7815,7 @@
       </c>
       <c r="X56" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y56" s="18">
         <f t="shared" si="21"/>
@@ -7899,7 +7902,7 @@
       </c>
       <c r="X57" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y57" s="18">
         <f t="shared" si="21"/>
@@ -7986,7 +7989,7 @@
       </c>
       <c r="X58" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y58" s="18">
         <f t="shared" si="21"/>
@@ -8080,7 +8083,7 @@
       </c>
       <c r="X59" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Y59" s="18">
         <f t="shared" si="21"/>
@@ -8173,7 +8176,7 @@
       </c>
       <c r="X60" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y60" s="18">
         <f t="shared" si="21"/>
@@ -8264,7 +8267,7 @@
       </c>
       <c r="X61" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y61" s="18">
         <f t="shared" si="21"/>
@@ -8358,7 +8361,7 @@
       </c>
       <c r="X62" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Y62" s="18">
         <f t="shared" si="21"/>
@@ -8453,7 +8456,7 @@
       </c>
       <c r="X63" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Y63" s="18">
         <f t="shared" si="21"/>
@@ -8548,7 +8551,7 @@
       </c>
       <c r="X64" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y64" s="18">
         <f t="shared" si="21"/>
@@ -8643,7 +8646,7 @@
       </c>
       <c r="X65" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y65" s="18">
         <f t="shared" si="21"/>
@@ -8737,7 +8740,7 @@
       </c>
       <c r="X66" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y66" s="18">
         <f t="shared" si="21"/>
@@ -8831,7 +8834,7 @@
       </c>
       <c r="X67" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y67" s="18">
         <f t="shared" si="21"/>
@@ -8924,7 +8927,7 @@
       </c>
       <c r="X68" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Y68" s="18">
         <f t="shared" si="21"/>
@@ -9015,7 +9018,7 @@
       </c>
       <c r="X69" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y69" s="18">
         <f t="shared" si="21"/>
@@ -9106,7 +9109,7 @@
       </c>
       <c r="X70" s="18">
         <f ca="1" t="shared" si="18"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y70" s="18">
         <f t="shared" si="21"/>
@@ -9358,7 +9361,7 @@
       </c>
       <c r="X73" s="18">
         <f ca="1" t="shared" ref="X73:X79" si="31">TODAY()-O73</f>
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Y73" s="18">
         <f t="shared" ref="Y73:Y79" si="32">O73-W73</f>
@@ -9449,7 +9452,7 @@
       </c>
       <c r="X74" s="18">
         <f ca="1" t="shared" si="31"/>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" si="32"/>
@@ -9539,7 +9542,7 @@
       </c>
       <c r="X75" s="18">
         <f ca="1" t="shared" si="31"/>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y75" s="18">
         <f t="shared" si="32"/>
@@ -9629,7 +9632,7 @@
       </c>
       <c r="X76" s="18">
         <f ca="1" t="shared" si="31"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y76" s="18">
         <f t="shared" si="32"/>
@@ -9719,7 +9722,7 @@
       </c>
       <c r="X77" s="18">
         <f ca="1" t="shared" si="31"/>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Y77" s="18">
         <f t="shared" si="32"/>
@@ -9811,7 +9814,7 @@
       </c>
       <c r="X78" s="18">
         <f ca="1" t="shared" si="31"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Y78" s="18">
         <f t="shared" si="32"/>
@@ -9901,7 +9904,7 @@
       <c r="W79" s="79"/>
       <c r="X79" s="18">
         <f ca="1" t="shared" si="31"/>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y79" s="18">
         <f t="shared" si="32"/>
@@ -10062,7 +10065,7 @@
       </c>
       <c r="X81" s="18">
         <f ca="1" t="shared" ref="X81:X92" si="36">TODAY()-O81</f>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y81" s="18">
         <f t="shared" ref="Y81:Y92" si="37">O81-W81</f>
@@ -10154,7 +10157,7 @@
       </c>
       <c r="X82" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Y82" s="18">
         <f t="shared" si="37"/>
@@ -10249,7 +10252,7 @@
       </c>
       <c r="X83" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y83" s="18">
         <f t="shared" si="37"/>
@@ -10341,7 +10344,7 @@
       </c>
       <c r="X84" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Y84" s="18">
         <f t="shared" si="37"/>
@@ -10435,7 +10438,7 @@
       </c>
       <c r="X85" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y85" s="18">
         <f t="shared" si="37"/>
@@ -10522,7 +10525,7 @@
       </c>
       <c r="X86" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Y86" s="18">
         <f t="shared" si="37"/>
@@ -10616,7 +10619,7 @@
       </c>
       <c r="X87" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y87" s="18">
         <f t="shared" si="37"/>
@@ -10709,7 +10712,7 @@
       </c>
       <c r="X88" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y88" s="18">
         <f t="shared" si="37"/>
@@ -10800,7 +10803,7 @@
       </c>
       <c r="X89" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Y89" s="18">
         <f t="shared" si="37"/>
@@ -10893,7 +10896,7 @@
       </c>
       <c r="X90" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Y90" s="18">
         <f t="shared" si="37"/>
@@ -10983,7 +10986,7 @@
       </c>
       <c r="X91" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Y91" s="18">
         <f t="shared" si="37"/>
@@ -11075,7 +11078,7 @@
       </c>
       <c r="X92" s="18">
         <f ca="1" t="shared" si="36"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" si="37"/>
@@ -14766,226 +14769,283 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30" style="51" customWidth="1"/>
-    <col min="2" max="2" width="10.8571428571429" style="51" customWidth="1"/>
-    <col min="3" max="3" width="16" style="51" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="51"/>
+    <col min="2" max="3" width="10.8571428571429" style="51" customWidth="1"/>
+    <col min="4" max="4" width="16" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="28.5" spans="1:4">
       <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="54">
         <v>119881450</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="54">
         <v>600000000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="54">
         <v>400000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="54">
         <v>119881450</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="54">
         <v>1200000000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="54">
         <v>500000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="53" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="54">
         <v>119881450</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="53" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="54">
         <v>1200000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="53" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="54">
         <v>500000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="53" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="54">
         <v>119881450</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="53" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="54">
         <v>1200000000</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="53" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="54">
         <v>200000000</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="53" t="s">
         <v>139</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="54">
         <v>119881450</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="53" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="54">
         <v>1050000000</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="53" t="s">
         <v>139</v>
       </c>
       <c r="B16" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="54">
         <v>200000000</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="54">
         <v>119881450</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="54">
         <v>1050000000</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="54">
         <v>200000000</v>
       </c>
     </row>
@@ -15000,7 +15060,7 @@
   <sheetPr/>
   <dimension ref="A1:Q1127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -15032,7 +15092,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>14</v>
@@ -15047,25 +15107,25 @@
         <v>15</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>2</v>
@@ -15073,13 +15133,13 @@
     </row>
     <row r="2" ht="16.5" spans="1:17">
       <c r="A2" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D2" s="28">
         <v>45261</v>
@@ -15118,7 +15178,7 @@
         <v>801944.726027397</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>28</v>
@@ -15133,7 +15193,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D3" s="28">
         <v>45079</v>
@@ -15172,7 +15232,7 @@
         <v>111731.772191781</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>28</v>
@@ -15187,7 +15247,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D4" s="28">
         <v>45079</v>
@@ -15226,7 +15286,7 @@
         <v>111731.772191781</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O4" s="33" t="s">
         <v>28</v>
@@ -15241,7 +15301,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D5" s="28">
         <v>45079</v>
@@ -15280,7 +15340,7 @@
         <v>288551.541917808</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O5" s="33" t="s">
         <v>28</v>
@@ -15295,7 +15355,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D6" s="28">
         <v>45211</v>
@@ -15334,7 +15394,7 @@
         <v>67288.2582191781</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O6" s="33" t="s">
         <v>28</v>
@@ -15349,7 +15409,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D7" s="28">
         <v>45211</v>
@@ -15388,7 +15448,7 @@
         <v>67288.2582191781</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O7" s="33" t="s">
         <v>28</v>
@@ -15403,7 +15463,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D8" s="28">
         <v>45211</v>
@@ -15442,7 +15502,7 @@
         <v>67288.2582191781</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O8" s="33" t="s">
         <v>28</v>
@@ -15457,7 +15517,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D9" s="28">
         <v>45211</v>
@@ -15496,7 +15556,7 @@
         <v>123781.006164384</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O9" s="33" t="s">
         <v>28</v>
@@ -15511,7 +15571,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D10" s="28">
         <v>45208</v>
@@ -15550,7 +15610,7 @@
         <v>68298.3380821918</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O10" s="33" t="s">
         <v>28</v>
@@ -15565,7 +15625,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D11" s="28">
         <v>45117</v>
@@ -15604,7 +15664,7 @@
         <v>98937.427260274</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O11" s="33" t="s">
         <v>28</v>
@@ -15619,7 +15679,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D12" s="28">
         <v>45273</v>
@@ -15658,7 +15718,7 @@
         <v>46413.2743835616</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O12" s="33" t="s">
         <v>28</v>
@@ -15673,7 +15733,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D13" s="28">
         <v>45273</v>
@@ -15712,7 +15772,7 @@
         <v>46413.2743835616</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O13" s="33" t="s">
         <v>28</v>
@@ -15727,7 +15787,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D14" s="28">
         <v>45273</v>
@@ -15766,7 +15826,7 @@
         <v>46413.2743835616</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O14" s="33" t="s">
         <v>28</v>
@@ -15775,13 +15835,13 @@
     </row>
     <row r="15" ht="16.5" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D15" s="28">
         <v>45222</v>
@@ -15820,7 +15880,7 @@
         <v>348387.533150685</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O15" s="33" t="s">
         <v>28</v>
@@ -15829,13 +15889,13 @@
     </row>
     <row r="16" ht="16.5" spans="1:15">
       <c r="A16" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D16" s="28">
         <v>45324</v>
@@ -15874,7 +15934,7 @@
         <v>1411068.20013699</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" s="33" t="s">
         <v>28</v>
@@ -15882,13 +15942,13 @@
     </row>
     <row r="17" ht="16.5" spans="1:15">
       <c r="A17" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D17" s="28">
         <v>45324</v>
@@ -15927,7 +15987,7 @@
         <v>1411068.20013699</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" s="33" t="s">
         <v>28</v>
@@ -15935,13 +15995,13 @@
     </row>
     <row r="18" ht="16.5" spans="1:15">
       <c r="A18" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D18" s="28">
         <v>45292</v>
@@ -15981,7 +16041,7 @@
         <v>59014580.7321</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O18" s="33" t="s">
         <v>28</v>
@@ -15989,13 +16049,13 @@
     </row>
     <row r="19" ht="16.5" spans="1:15">
       <c r="A19" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D19" s="28">
         <v>45323</v>
@@ -16032,7 +16092,7 @@
         <v>16988377.0684931</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" s="33" t="s">
         <v>28</v>
@@ -16040,13 +16100,13 @@
     </row>
     <row r="20" ht="16.5" spans="1:15">
       <c r="A20" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D20" s="28">
         <v>45272</v>
@@ -16084,7 +16144,7 @@
         <v>327191.985753425</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O20" s="33" t="s">
         <v>28</v>
@@ -16092,13 +16152,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:15">
       <c r="A21" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D21" s="28">
         <v>45272</v>
@@ -16136,7 +16196,7 @@
         <v>813665.2</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O21" s="33" t="s">
         <v>28</v>
@@ -16150,7 +16210,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D22" s="28">
         <v>45273</v>
@@ -16188,7 +16248,7 @@
         <v>46413.2743835616</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O22" s="33" t="s">
         <v>28</v>
@@ -16202,7 +16262,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D23" s="28">
         <v>45273</v>
@@ -16240,7 +16300,7 @@
         <v>46413.2743835616</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O23" s="33" t="s">
         <v>28</v>
@@ -16254,7 +16314,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="28">
         <v>45273</v>
@@ -16292,7 +16352,7 @@
         <v>46413.2743835616</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O24" s="33" t="s">
         <v>28</v>
@@ -16306,7 +16366,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D25" s="28">
         <v>45296</v>
@@ -16345,7 +16405,7 @@
         <v>301796.917808219</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O25" s="33" t="s">
         <v>28</v>
@@ -16359,7 +16419,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D26" s="28">
         <v>45296</v>
@@ -16398,7 +16458,7 @@
         <v>301796.917808219</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O26" s="33" t="s">
         <v>28</v>
@@ -16412,7 +16472,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D27" s="28">
         <v>45296</v>
@@ -16451,7 +16511,7 @@
         <v>301796.917808219</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O27" s="33" t="s">
         <v>28</v>
@@ -16465,7 +16525,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D28" s="28">
         <v>45296</v>
@@ -16504,7 +16564,7 @@
         <v>307796.917808219</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O28" s="33" t="s">
         <v>28</v>
@@ -16518,7 +16578,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D29" s="28">
         <v>45303</v>
@@ -16557,7 +16617,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O29" s="33" t="s">
         <v>28</v>
@@ -16571,7 +16631,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D30" s="28">
         <v>45303</v>
@@ -16610,7 +16670,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O30" s="33" t="s">
         <v>28</v>
@@ -16624,7 +16684,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D31" s="28">
         <v>45303</v>
@@ -16663,7 +16723,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O31" s="33" t="s">
         <v>28</v>
@@ -16677,7 +16737,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D32" s="28">
         <v>45303</v>
@@ -16716,7 +16776,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O32" s="33" t="s">
         <v>28</v>
@@ -16730,7 +16790,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D33" s="28">
         <v>45303</v>
@@ -16769,7 +16829,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N33" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O33" s="33" t="s">
         <v>28</v>
@@ -16783,7 +16843,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D34" s="28">
         <v>45303</v>
@@ -16822,7 +16882,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O34" s="33" t="s">
         <v>28</v>
@@ -16836,7 +16896,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D35" s="28">
         <v>45303</v>
@@ -16875,7 +16935,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N35" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O35" s="33" t="s">
         <v>28</v>
@@ -16889,7 +16949,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D36" s="28">
         <v>45303</v>
@@ -16928,7 +16988,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N36" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O36" s="33" t="s">
         <v>28</v>
@@ -16942,7 +17002,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D37" s="28">
         <v>45303</v>
@@ -16981,7 +17041,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N37" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O37" s="33" t="s">
         <v>28</v>
@@ -16995,7 +17055,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D38" s="28">
         <v>45303</v>
@@ -17034,7 +17094,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N38" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O38" s="33" t="s">
         <v>28</v>
@@ -17048,7 +17108,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D39" s="28">
         <v>45303</v>
@@ -17087,7 +17147,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N39" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O39" s="33" t="s">
         <v>28</v>
@@ -17101,7 +17161,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D40" s="28">
         <v>45303</v>
@@ -17140,7 +17200,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N40" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O40" s="33" t="s">
         <v>28</v>
@@ -17154,7 +17214,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D41" s="28">
         <v>45303</v>
@@ -17193,7 +17253,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N41" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O41" s="33" t="s">
         <v>28</v>
@@ -17207,7 +17267,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D42" s="28">
         <v>45303</v>
@@ -17246,7 +17306,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N42" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O42" s="33" t="s">
         <v>28</v>
@@ -17260,7 +17320,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D43" s="28">
         <v>45303</v>
@@ -17299,7 +17359,7 @@
         <v>294191.178082192</v>
       </c>
       <c r="N43" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O43" s="33" t="s">
         <v>28</v>
@@ -17313,7 +17373,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D44" s="28">
         <v>45308</v>
@@ -17352,7 +17412,7 @@
         <v>288758.506849315</v>
       </c>
       <c r="N44" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O44" s="33" t="s">
         <v>28</v>
@@ -17366,7 +17426,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D45" s="28">
         <v>45308</v>
@@ -17405,7 +17465,7 @@
         <v>288758.506849315</v>
       </c>
       <c r="N45" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O45" s="33" t="s">
         <v>28</v>
@@ -17419,7 +17479,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D46" s="28">
         <v>45309</v>
@@ -17458,7 +17518,7 @@
         <v>287671.97260274</v>
       </c>
       <c r="N46" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O46" s="33" t="s">
         <v>28</v>
@@ -17472,7 +17532,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D47" s="28">
         <v>45315</v>
@@ -17511,7 +17571,7 @@
         <v>281152.767123288</v>
       </c>
       <c r="N47" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O47" s="33" t="s">
         <v>28</v>
@@ -17525,7 +17585,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D48" s="28">
         <v>45315</v>
@@ -17564,7 +17624,7 @@
         <v>281152.767123288</v>
       </c>
       <c r="N48" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O48" s="33" t="s">
         <v>28</v>
@@ -17578,7 +17638,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D49" s="28">
         <v>45315</v>
@@ -17617,7 +17677,7 @@
         <v>284152.767123288</v>
       </c>
       <c r="N49" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O49" s="33" t="s">
         <v>28</v>
@@ -17631,7 +17691,7 @@
         <v>29</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D50" s="28">
         <v>45315</v>
@@ -17670,7 +17730,7 @@
         <v>281152.767123288</v>
       </c>
       <c r="N50" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O50" s="33" t="s">
         <v>28</v>
@@ -17684,7 +17744,7 @@
         <v>29</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D51" s="28">
         <v>45315</v>
@@ -17723,7 +17783,7 @@
         <v>281152.767123288</v>
       </c>
       <c r="N51" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O51" s="33" t="s">
         <v>28</v>
@@ -17737,7 +17797,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D52" s="28">
         <v>45316</v>
@@ -17776,7 +17836,7 @@
         <v>280066.232876712</v>
       </c>
       <c r="N52" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O52" s="33" t="s">
         <v>28</v>
@@ -17790,7 +17850,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D53" s="28">
         <v>45316</v>
@@ -17829,7 +17889,7 @@
         <v>280066.232876712</v>
       </c>
       <c r="N53" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O53" s="33" t="s">
         <v>28</v>
@@ -17843,7 +17903,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D54" s="28">
         <v>45322</v>
@@ -17882,7 +17942,7 @@
         <v>273547.02739726</v>
       </c>
       <c r="N54" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O54" s="33" t="s">
         <v>28</v>
@@ -17896,7 +17956,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D55" s="28">
         <v>45322</v>
@@ -17935,7 +17995,7 @@
         <v>273547.02739726</v>
       </c>
       <c r="N55" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O55" s="33" t="s">
         <v>28</v>
@@ -17949,7 +18009,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D56" s="28">
         <v>45324</v>
@@ -17988,7 +18048,7 @@
         <v>271373.95890411</v>
       </c>
       <c r="N56" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O56" s="33" t="s">
         <v>28</v>
@@ -18002,7 +18062,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D57" s="28">
         <v>45324</v>
@@ -18041,7 +18101,7 @@
         <v>271373.95890411</v>
       </c>
       <c r="N57" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O57" s="33" t="s">
         <v>28</v>
@@ -18055,7 +18115,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D58" s="28">
         <v>45324</v>
@@ -18094,7 +18154,7 @@
         <v>274373.95890411</v>
       </c>
       <c r="N58" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O58" s="33" t="s">
         <v>28</v>
@@ -18108,7 +18168,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D59" s="28">
         <v>45324</v>
@@ -18147,7 +18207,7 @@
         <v>271373.95890411</v>
       </c>
       <c r="N59" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O59" s="33" t="s">
         <v>28</v>
@@ -18161,7 +18221,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D60" s="28">
         <v>45324</v>
@@ -18200,7 +18260,7 @@
         <v>271373.95890411</v>
       </c>
       <c r="N60" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O60" s="33" t="s">
         <v>28</v>
@@ -18214,7 +18274,7 @@
         <v>29</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D61" s="28">
         <v>45324</v>
@@ -18253,7 +18313,7 @@
         <v>271373.95890411</v>
       </c>
       <c r="N61" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O61" s="33" t="s">
         <v>28</v>
@@ -18267,7 +18327,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D62" s="28">
         <v>45324</v>
@@ -18306,7 +18366,7 @@
         <v>271373.95890411</v>
       </c>
       <c r="N62" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O62" s="33" t="s">
         <v>28</v>
@@ -18320,7 +18380,7 @@
         <v>29</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D63" s="28">
         <v>45329</v>
@@ -18359,7 +18419,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N63" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="33" t="s">
         <v>28</v>
@@ -18373,7 +18433,7 @@
         <v>29</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D64" s="28">
         <v>45329</v>
@@ -18412,7 +18472,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N64" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="33" t="s">
         <v>28</v>
@@ -18426,7 +18486,7 @@
         <v>29</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D65" s="28">
         <v>45329</v>
@@ -18465,7 +18525,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N65" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="33" t="s">
         <v>28</v>
@@ -18479,7 +18539,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D66" s="28">
         <v>45329</v>
@@ -18518,7 +18578,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N66" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="33" t="s">
         <v>28</v>
@@ -18532,7 +18592,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D67" s="28">
         <v>45329</v>
@@ -18571,7 +18631,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N67" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="33" t="s">
         <v>28</v>
@@ -18585,7 +18645,7 @@
         <v>29</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D68" s="28">
         <v>45329</v>
@@ -18624,7 +18684,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N68" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O68" s="33" t="s">
         <v>28</v>
@@ -18638,7 +18698,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D69" s="28">
         <v>45329</v>
@@ -18677,7 +18737,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N69" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O69" s="33" t="s">
         <v>28</v>
@@ -18691,7 +18751,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D70" s="28">
         <v>45329</v>
@@ -18730,7 +18790,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N70" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O70" s="33" t="s">
         <v>28</v>
@@ -18744,7 +18804,7 @@
         <v>29</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D71" s="28">
         <v>45329</v>
@@ -18783,7 +18843,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N71" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O71" s="33" t="s">
         <v>28</v>
@@ -18797,7 +18857,7 @@
         <v>29</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D72" s="28">
         <v>45329</v>
@@ -18836,7 +18896,7 @@
         <v>265941.287671233</v>
       </c>
       <c r="N72" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O72" s="33" t="s">
         <v>28</v>
@@ -18850,7 +18910,7 @@
         <v>38</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D73" s="28">
         <v>45313</v>
@@ -18889,7 +18949,7 @@
         <v>463999.149589041</v>
       </c>
       <c r="N73" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O73" s="33" t="s">
         <v>28</v>
@@ -18903,7 +18963,7 @@
         <v>38</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D74" s="28">
         <v>45321</v>
@@ -18942,7 +19002,7 @@
         <v>444043.143013699</v>
       </c>
       <c r="N74" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O74" s="33" t="s">
         <v>28</v>
@@ -18950,13 +19010,13 @@
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="1:16">
       <c r="A75" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D75" s="28">
         <v>45348</v>
@@ -18995,7 +19055,7 @@
         <v>235879.141369863</v>
       </c>
       <c r="N75" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O75" s="33" t="s">
         <v>28</v>
@@ -19010,7 +19070,7 @@
         <v>29</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D76" s="28">
         <v>45358</v>
@@ -19049,7 +19109,7 @@
         <v>52765.5010958904</v>
       </c>
       <c r="N76" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O76" s="33" t="s">
         <v>28</v>
@@ -19057,13 +19117,13 @@
     </row>
     <row r="77" ht="15.75" customHeight="1" spans="1:15">
       <c r="A77" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B77" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D77" s="28">
         <v>45386</v>
@@ -19102,7 +19162,7 @@
         <v>1006327.22739726</v>
       </c>
       <c r="N77" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O77" s="33" t="s">
         <v>28</v>
@@ -19116,7 +19176,7 @@
         <v>29</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D78" s="28">
         <v>45350</v>
@@ -19155,7 +19215,7 @@
         <v>243124.068493151</v>
       </c>
       <c r="N78" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O78" s="33" t="s">
         <v>28</v>
@@ -19169,7 +19229,7 @@
         <v>29</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D79" s="28">
         <v>45359</v>
@@ -19208,7 +19268,7 @@
         <v>233345.260273973</v>
       </c>
       <c r="N79" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O79" s="33" t="s">
         <v>28</v>
@@ -19222,7 +19282,7 @@
         <v>29</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D80" s="28">
         <v>45362</v>
@@ -19261,7 +19321,7 @@
         <v>230085.657534247</v>
       </c>
       <c r="N80" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O80" s="33" t="s">
         <v>28</v>
@@ -19275,7 +19335,7 @@
         <v>29</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D81" s="28">
         <v>45370</v>
@@ -19314,7 +19374,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N81" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O81" s="33" t="s">
         <v>28</v>
@@ -19328,7 +19388,7 @@
         <v>29</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D82" s="28">
         <v>45370</v>
@@ -19367,7 +19427,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N82" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O82" s="33" t="s">
         <v>28</v>
@@ -19381,7 +19441,7 @@
         <v>29</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D83" s="28">
         <v>45370</v>
@@ -19420,7 +19480,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N83" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O83" s="33" t="s">
         <v>28</v>
@@ -19434,7 +19494,7 @@
         <v>29</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D84" s="28">
         <v>45370</v>
@@ -19473,7 +19533,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N84" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O84" s="33" t="s">
         <v>28</v>
@@ -19487,7 +19547,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D85" s="28">
         <v>45370</v>
@@ -19526,7 +19586,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N85" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O85" s="33" t="s">
         <v>28</v>
@@ -19540,7 +19600,7 @@
         <v>29</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D86" s="28">
         <v>45370</v>
@@ -19579,7 +19639,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N86" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O86" s="33" t="s">
         <v>28</v>
@@ -19593,7 +19653,7 @@
         <v>29</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D87" s="28">
         <v>45370</v>
@@ -19632,7 +19692,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N87" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O87" s="33" t="s">
         <v>28</v>
@@ -19646,7 +19706,7 @@
         <v>29</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D88" s="28">
         <v>45370</v>
@@ -19685,7 +19745,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N88" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O88" s="33" t="s">
         <v>28</v>
@@ -19699,7 +19759,7 @@
         <v>29</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D89" s="28">
         <v>45370</v>
@@ -19738,7 +19798,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N89" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O89" s="33" t="s">
         <v>28</v>
@@ -19752,7 +19812,7 @@
         <v>29</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D90" s="28">
         <v>45370</v>
@@ -19791,7 +19851,7 @@
         <v>221393.383561644</v>
       </c>
       <c r="N90" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O90" s="33" t="s">
         <v>28</v>
@@ -19799,13 +19859,13 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:15">
       <c r="A91" s="27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B91" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D91" s="28">
         <v>45405</v>
@@ -19844,7 +19904,7 @@
         <v>390261.659726027</v>
       </c>
       <c r="N91" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O91" s="33" t="s">
         <v>28</v>
@@ -19858,7 +19918,7 @@
         <v>29</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D92" s="28">
         <v>45387</v>
@@ -19897,7 +19957,7 @@
         <v>1155136.02739726</v>
       </c>
       <c r="N92" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O92" s="33" t="s">
         <v>28</v>
@@ -19911,7 +19971,7 @@
         <v>29</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D93" s="28">
         <v>45413</v>
@@ -19950,7 +20010,7 @@
         <v>1295908.40479452</v>
       </c>
       <c r="N93" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O93" s="33" t="s">
         <v>28</v>
@@ -19958,13 +20018,13 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:15">
       <c r="A94" s="27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B94" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D94" s="28">
         <v>45448</v>
@@ -20003,7 +20063,7 @@
         <v>381323.196438356</v>
       </c>
       <c r="N94" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O94" s="33" t="s">
         <v>28</v>
@@ -20011,13 +20071,13 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:15">
       <c r="A95" s="27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B95" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D95" s="28">
         <v>45448</v>
@@ -20056,7 +20116,7 @@
         <v>227476.372465753</v>
       </c>
       <c r="N95" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O95" s="33" t="s">
         <v>28</v>
@@ -20070,7 +20130,7 @@
         <v>29</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D96" s="28">
         <v>45446</v>
@@ -20109,7 +20169,7 @@
         <v>378308.703561644</v>
       </c>
       <c r="N96" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O96" s="33" t="s">
         <v>28</v>
@@ -20123,7 +20183,7 @@
         <v>29</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D97" s="28">
         <v>45446</v>
@@ -20162,7 +20222,7 @@
         <v>1136360.59616438</v>
       </c>
       <c r="N97" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O97" s="33" t="s">
         <v>28</v>
@@ -20176,7 +20236,7 @@
         <v>29</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D98" s="28">
         <v>45446</v>
@@ -20215,7 +20275,7 @@
         <v>378308.703561644</v>
       </c>
       <c r="N98" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O98" s="33" t="s">
         <v>28</v>
@@ -20229,7 +20289,7 @@
         <v>29</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D99" s="28">
         <v>45446</v>
@@ -20268,7 +20328,7 @@
         <v>378308.703561644</v>
       </c>
       <c r="N99" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O99" s="33" t="s">
         <v>28</v>
@@ -20276,13 +20336,13 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="1:15">
       <c r="A100" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B100" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D100" s="28">
         <v>45432</v>
@@ -20321,7 +20381,7 @@
         <v>361283.282191781</v>
       </c>
       <c r="N100" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O100" s="33" t="s">
         <v>28</v>
@@ -20335,7 +20395,7 @@
         <v>34</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D101" s="28">
         <v>45434</v>
@@ -20374,7 +20434,7 @@
         <v>1013345.12054795</v>
       </c>
       <c r="N101" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O101" s="33" t="s">
         <v>28</v>
@@ -20388,7 +20448,7 @@
         <v>34</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D102" s="28">
         <v>45434</v>
@@ -20427,7 +20487,7 @@
         <v>484611.405479452</v>
       </c>
       <c r="N102" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O102" s="33" t="s">
         <v>28</v>
@@ -20441,7 +20501,7 @@
         <v>34</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D103" s="28">
         <v>45434</v>
@@ -20480,7 +20540,7 @@
         <v>1200565.74520548</v>
       </c>
       <c r="N103" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O103" s="33" t="s">
         <v>28</v>
@@ -20488,13 +20548,13 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:15">
       <c r="A104" s="27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B104" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D104" s="28">
         <v>45413</v>
@@ -20533,7 +20593,7 @@
         <v>69211832.382</v>
       </c>
       <c r="N104" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O104" s="33" t="s">
         <v>28</v>
@@ -20547,7 +20607,7 @@
         <v>34</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D105" s="28">
         <v>45456</v>
@@ -20586,7 +20646,7 @@
         <v>1402538.49589041</v>
       </c>
       <c r="N105" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O105" s="33" t="s">
         <v>28</v>
@@ -20600,7 +20660,7 @@
         <v>29</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D106" s="36">
         <v>45358</v>
@@ -20639,7 +20699,7 @@
         <v>334211.27890411</v>
       </c>
       <c r="N106" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O106" s="33" t="s">
         <v>28</v>
@@ -20653,7 +20713,7 @@
         <v>29</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D107" s="36">
         <v>45364</v>
@@ -20692,7 +20752,7 @@
         <v>830287.381643836</v>
       </c>
       <c r="N107" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O107" s="33" t="s">
         <v>28</v>
@@ -20706,7 +20766,7 @@
         <v>29</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D108" s="36">
         <v>45425</v>
@@ -20745,7 +20805,7 @@
         <v>237237.369589041</v>
       </c>
       <c r="N108" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O108" s="33" t="s">
         <v>28</v>
@@ -20759,7 +20819,7 @@
         <v>29</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D109" s="36">
         <v>45425</v>
@@ -20798,7 +20858,7 @@
         <v>664105.840821918</v>
       </c>
       <c r="N109" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O109" s="33" t="s">
         <v>28</v>
@@ -20806,13 +20866,13 @@
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:15">
       <c r="A110" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B110" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="28">
         <v>45446</v>
@@ -20851,7 +20911,7 @@
         <v>196726.148630137</v>
       </c>
       <c r="N110" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O110" s="33" t="s">
         <v>28</v>
@@ -20865,7 +20925,7 @@
         <v>34</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="28">
         <v>45464</v>
@@ -20904,7 +20964,7 @@
         <v>182654.830547945</v>
       </c>
       <c r="N111" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O111" s="33" t="s">
         <v>28</v>
@@ -20918,7 +20978,7 @@
         <v>34</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="28">
         <v>45464</v>
@@ -20957,7 +21017,7 @@
         <v>127764.012191781</v>
       </c>
       <c r="N112" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O112" s="33" t="s">
         <v>28</v>
@@ -20971,7 +21031,7 @@
         <v>34</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="28">
         <v>45464</v>
@@ -21010,7 +21070,7 @@
         <v>171678.277260274</v>
       </c>
       <c r="N113" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O113" s="33" t="s">
         <v>28</v>
@@ -21018,13 +21078,13 @@
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:15">
       <c r="A114" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D114" s="28">
         <v>45446</v>
@@ -21063,7 +21123,7 @@
         <v>378308.703561644</v>
       </c>
       <c r="N114" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O114" s="33" t="s">
         <v>28</v>
@@ -21071,13 +21131,13 @@
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:15">
       <c r="A115" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D115" s="28">
         <v>45446</v>
@@ -21116,7 +21176,7 @@
         <v>1136360.59616438</v>
       </c>
       <c r="N115" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O115" s="33" t="s">
         <v>28</v>
@@ -21124,13 +21184,13 @@
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:15">
       <c r="A116" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D116" s="28">
         <v>45446</v>
@@ -21169,7 +21229,7 @@
         <v>378308.703561644</v>
       </c>
       <c r="N116" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O116" s="33" t="s">
         <v>28</v>
@@ -21177,13 +21237,13 @@
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:15">
       <c r="A117" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B117" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D117" s="28">
         <v>45446</v>
@@ -21222,7 +21282,7 @@
         <v>378308.703561644</v>
       </c>
       <c r="N117" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O117" s="33" t="s">
         <v>28</v>
@@ -21236,7 +21296,7 @@
         <v>29</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D118" s="28">
         <v>45466</v>
@@ -21271,7 +21331,7 @@
         <v>150769</v>
       </c>
       <c r="N118" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O118" s="33" t="s">
         <v>28</v>
@@ -21285,7 +21345,7 @@
         <v>29</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D119" s="28">
         <v>45467</v>
@@ -21320,7 +21380,7 @@
         <v>150769</v>
       </c>
       <c r="N119" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O119" s="33" t="s">
         <v>28</v>
@@ -21334,7 +21394,7 @@
         <v>29</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D120" s="28">
         <v>45468</v>
@@ -21369,7 +21429,7 @@
         <v>150769</v>
       </c>
       <c r="N120" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O120" s="33" t="s">
         <v>28</v>
@@ -21383,7 +21443,7 @@
         <v>29</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D121" s="28">
         <v>45469</v>
@@ -21418,7 +21478,7 @@
         <v>150769</v>
       </c>
       <c r="N121" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O121" s="33" t="s">
         <v>28</v>
@@ -21432,7 +21492,7 @@
         <v>29</v>
       </c>
       <c r="C122" s="39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D122" s="28">
         <v>45471</v>
@@ -21467,7 +21527,7 @@
         <v>145336</v>
       </c>
       <c r="N122" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O122" s="33" t="s">
         <v>28</v>
@@ -21481,7 +21541,7 @@
         <v>29</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D123" s="28">
         <v>45472</v>
@@ -21516,7 +21576,7 @@
         <v>144249</v>
       </c>
       <c r="N123" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O123" s="33" t="s">
         <v>28</v>
@@ -21530,7 +21590,7 @@
         <v>29</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D124" s="42">
         <v>45388</v>
@@ -21565,7 +21625,7 @@
         <v>137730</v>
       </c>
       <c r="N124" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O124" s="33" t="s">
         <v>28</v>
@@ -21579,7 +21639,7 @@
         <v>29</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D125" s="42">
         <v>45388</v>
@@ -21614,7 +21674,7 @@
         <v>137730</v>
       </c>
       <c r="N125" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O125" s="33" t="s">
         <v>28</v>
@@ -21628,7 +21688,7 @@
         <v>29</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D126" s="42">
         <v>45418</v>
@@ -21663,7 +21723,7 @@
         <v>136644</v>
       </c>
       <c r="N126" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O126" s="33" t="s">
         <v>28</v>
@@ -21677,7 +21737,7 @@
         <v>29</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D127" s="42">
         <v>45418</v>
@@ -21712,7 +21772,7 @@
         <v>136644</v>
       </c>
       <c r="N127" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O127" s="33" t="s">
         <v>28</v>
@@ -21726,7 +21786,7 @@
         <v>29</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D128" s="42">
         <v>45418</v>
@@ -21761,7 +21821,7 @@
         <v>136644</v>
       </c>
       <c r="N128" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O128" s="33" t="s">
         <v>28</v>
@@ -21775,7 +21835,7 @@
         <v>29</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D129" s="42">
         <v>45418</v>
@@ -21810,7 +21870,7 @@
         <v>136644</v>
       </c>
       <c r="N129" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O129" s="33" t="s">
         <v>28</v>
@@ -21824,7 +21884,7 @@
         <v>29</v>
       </c>
       <c r="C130" s="39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D130" s="42">
         <v>45418</v>
@@ -21859,7 +21919,7 @@
         <v>136644</v>
       </c>
       <c r="N130" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O130" s="33" t="s">
         <v>28</v>
@@ -21873,7 +21933,7 @@
         <v>29</v>
       </c>
       <c r="C131" s="39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D131" s="42">
         <v>45418</v>
@@ -21908,7 +21968,7 @@
         <v>136644</v>
       </c>
       <c r="N131" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O131" s="33" t="s">
         <v>28</v>
@@ -21922,7 +21982,7 @@
         <v>29</v>
       </c>
       <c r="C132" s="39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D132" s="42">
         <v>45479</v>
@@ -21957,7 +22017,7 @@
         <v>134471</v>
       </c>
       <c r="N132" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O132" s="33" t="s">
         <v>28</v>
@@ -21971,7 +22031,7 @@
         <v>29</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D133" s="42">
         <v>45479</v>
@@ -22006,7 +22066,7 @@
         <v>134471</v>
       </c>
       <c r="N133" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O133" s="33" t="s">
         <v>28</v>
@@ -22020,7 +22080,7 @@
         <v>29</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D134" s="42">
         <v>45571</v>
@@ -22055,7 +22115,7 @@
         <v>131211</v>
       </c>
       <c r="N134" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O134" s="33" t="s">
         <v>28</v>
@@ -22069,7 +22129,7 @@
         <v>29</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D135" s="42">
         <v>45571</v>
@@ -22104,7 +22164,7 @@
         <v>131211</v>
       </c>
       <c r="N135" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O135" s="33" t="s">
         <v>28</v>
@@ -22118,7 +22178,7 @@
         <v>29</v>
       </c>
       <c r="C136" s="39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D136" s="42">
         <v>45571</v>
@@ -22153,7 +22213,7 @@
         <v>131211</v>
       </c>
       <c r="N136" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O136" s="33" t="s">
         <v>28</v>
@@ -22167,7 +22227,7 @@
         <v>29</v>
       </c>
       <c r="C137" s="39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D137" s="42">
         <v>45462</v>
@@ -22202,7 +22262,7 @@
         <v>121432</v>
       </c>
       <c r="N137" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O137" s="33" t="s">
         <v>28</v>
@@ -22216,7 +22276,7 @@
         <v>29</v>
       </c>
       <c r="C138" s="39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D138" s="42">
         <v>45462</v>
@@ -22251,7 +22311,7 @@
         <v>121432</v>
       </c>
       <c r="N138" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O138" s="33" t="s">
         <v>28</v>
@@ -22265,7 +22325,7 @@
         <v>29</v>
       </c>
       <c r="C139" s="39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D139" s="42">
         <v>45462</v>
@@ -22300,7 +22360,7 @@
         <v>121432</v>
       </c>
       <c r="N139" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O139" s="33" t="s">
         <v>28</v>
@@ -22314,7 +22374,7 @@
         <v>29</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D140" s="42">
         <v>45462</v>
@@ -22349,7 +22409,7 @@
         <v>121432</v>
       </c>
       <c r="N140" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O140" s="33" t="s">
         <v>28</v>
@@ -22363,7 +22423,7 @@
         <v>29</v>
       </c>
       <c r="C141" s="39" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D141" s="42">
         <v>45462</v>
@@ -22398,7 +22458,7 @@
         <v>121432</v>
       </c>
       <c r="N141" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O141" s="33" t="s">
         <v>28</v>
@@ -22412,7 +22472,7 @@
         <v>29</v>
       </c>
       <c r="C142" s="39" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D142" s="42">
         <v>45462</v>
@@ -22447,7 +22507,7 @@
         <v>121432</v>
       </c>
       <c r="N142" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O142" s="33" t="s">
         <v>28</v>
@@ -22461,7 +22521,7 @@
         <v>29</v>
       </c>
       <c r="C143" s="39" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D143" s="42">
         <v>45462</v>
@@ -22496,7 +22556,7 @@
         <v>124432</v>
       </c>
       <c r="N143" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O143" s="33" t="s">
         <v>28</v>
@@ -22510,7 +22570,7 @@
         <v>29</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D144" s="42">
         <v>45462</v>
@@ -22545,7 +22605,7 @@
         <v>124432</v>
       </c>
       <c r="N144" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O144" s="33" t="s">
         <v>28</v>
@@ -22559,7 +22619,7 @@
         <v>29</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D145" s="42">
         <v>45462</v>
@@ -22594,7 +22654,7 @@
         <v>121432</v>
       </c>
       <c r="N145" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O145" s="33" t="s">
         <v>28</v>
@@ -22608,7 +22668,7 @@
         <v>29</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D146" s="42">
         <v>45462</v>
@@ -22643,7 +22703,7 @@
         <v>121432</v>
       </c>
       <c r="N146" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O146" s="33" t="s">
         <v>28</v>
@@ -22657,7 +22717,7 @@
         <v>29</v>
       </c>
       <c r="C147" s="39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D147" s="42">
         <v>45462</v>
@@ -22692,7 +22752,7 @@
         <v>121432</v>
       </c>
       <c r="N147" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O147" s="33" t="s">
         <v>28</v>
@@ -22706,7 +22766,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D148" s="42">
         <v>45462</v>
@@ -22741,7 +22801,7 @@
         <v>121432</v>
       </c>
       <c r="N148" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O148" s="33" t="s">
         <v>28</v>
@@ -22755,7 +22815,7 @@
         <v>29</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D149" s="42">
         <v>45462</v>
@@ -22790,7 +22850,7 @@
         <v>121432</v>
       </c>
       <c r="N149" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O149" s="33" t="s">
         <v>28</v>
@@ -22804,7 +22864,7 @@
         <v>29</v>
       </c>
       <c r="C150" s="39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D150" s="42">
         <v>45462</v>
@@ -22839,7 +22899,7 @@
         <v>121432</v>
       </c>
       <c r="N150" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O150" s="33" t="s">
         <v>28</v>
@@ -22853,7 +22913,7 @@
         <v>29</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D151" s="42">
         <v>45462</v>
@@ -22888,7 +22948,7 @@
         <v>121432</v>
       </c>
       <c r="N151" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O151" s="33" t="s">
         <v>28</v>
@@ -22902,7 +22962,7 @@
         <v>29</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D152" s="42">
         <v>45463</v>
@@ -22937,7 +22997,7 @@
         <v>120346</v>
       </c>
       <c r="N152" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O152" s="33" t="s">
         <v>28</v>
@@ -22951,7 +23011,7 @@
         <v>29</v>
       </c>
       <c r="C153" s="39" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D153" s="42">
         <v>45467</v>
@@ -22986,7 +23046,7 @@
         <v>116000</v>
       </c>
       <c r="N153" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O153" s="33" t="s">
         <v>28</v>
@@ -23000,7 +23060,7 @@
         <v>29</v>
       </c>
       <c r="C154" s="39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D154" s="42">
         <v>45469</v>
@@ -23035,7 +23095,7 @@
         <v>116826</v>
       </c>
       <c r="N154" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O154" s="33" t="s">
         <v>28</v>
@@ -23049,7 +23109,7 @@
         <v>29</v>
       </c>
       <c r="C155" s="39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D155" s="42">
         <v>45469</v>
@@ -23084,7 +23144,7 @@
         <v>113826</v>
       </c>
       <c r="N155" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O155" s="33" t="s">
         <v>28</v>
@@ -23098,7 +23158,7 @@
         <v>29</v>
       </c>
       <c r="C156" s="39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D156" s="42">
         <v>45469</v>
@@ -23133,7 +23193,7 @@
         <v>113826</v>
       </c>
       <c r="N156" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O156" s="33" t="s">
         <v>28</v>
@@ -23147,7 +23207,7 @@
         <v>29</v>
       </c>
       <c r="C157" s="39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D157" s="42">
         <v>45469</v>
@@ -23182,7 +23242,7 @@
         <v>113826</v>
       </c>
       <c r="N157" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O157" s="33" t="s">
         <v>28</v>
@@ -23196,7 +23256,7 @@
         <v>29</v>
       </c>
       <c r="C158" s="39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D158" s="42">
         <v>45469</v>
@@ -23231,7 +23291,7 @@
         <v>113826</v>
       </c>
       <c r="N158" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O158" s="33" t="s">
         <v>28</v>
@@ -23245,7 +23305,7 @@
         <v>29</v>
       </c>
       <c r="C159" s="39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D159" s="42">
         <v>45469</v>
@@ -23280,7 +23340,7 @@
         <v>113826</v>
       </c>
       <c r="N159" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O159" s="33" t="s">
         <v>28</v>
@@ -23294,7 +23354,7 @@
         <v>29</v>
       </c>
       <c r="C160" s="39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D160" s="42">
         <v>45469</v>
@@ -23329,7 +23389,7 @@
         <v>113826</v>
       </c>
       <c r="N160" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O160" s="33" t="s">
         <v>28</v>
@@ -23343,7 +23403,7 @@
         <v>29</v>
       </c>
       <c r="C161" s="39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D161" s="42">
         <v>45469</v>
@@ -23378,7 +23438,7 @@
         <v>113826</v>
       </c>
       <c r="N161" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O161" s="33" t="s">
         <v>28</v>
@@ -23392,7 +23452,7 @@
         <v>29</v>
       </c>
       <c r="C162" s="39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D162" s="42">
         <v>45469</v>
@@ -23427,7 +23487,7 @@
         <v>113826</v>
       </c>
       <c r="N162" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O162" s="33" t="s">
         <v>28</v>
@@ -23441,7 +23501,7 @@
         <v>29</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D163" s="42">
         <v>45469</v>
@@ -23476,7 +23536,7 @@
         <v>113826</v>
       </c>
       <c r="N163" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O163" s="33" t="s">
         <v>28</v>
@@ -23490,7 +23550,7 @@
         <v>29</v>
       </c>
       <c r="C164" s="39" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D164" s="42">
         <v>45469</v>
@@ -23525,7 +23585,7 @@
         <v>113826</v>
       </c>
       <c r="N164" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O164" s="33" t="s">
         <v>28</v>
@@ -23539,7 +23599,7 @@
         <v>29</v>
       </c>
       <c r="C165" s="39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D165" s="42">
         <v>45470</v>
@@ -23574,7 +23634,7 @@
         <v>112740</v>
       </c>
       <c r="N165" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O165" s="33" t="s">
         <v>28</v>
@@ -23588,7 +23648,7 @@
         <v>29</v>
       </c>
       <c r="C166" s="39" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D166" s="42">
         <v>45470</v>
@@ -23623,7 +23683,7 @@
         <v>112740</v>
       </c>
       <c r="N166" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O166" s="33" t="s">
         <v>28</v>
@@ -23637,7 +23697,7 @@
         <v>29</v>
       </c>
       <c r="C167" s="39" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D167" s="42">
         <v>45471</v>
@@ -23672,7 +23732,7 @@
         <v>111653</v>
       </c>
       <c r="N167" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O167" s="33" t="s">
         <v>28</v>
@@ -23686,7 +23746,7 @@
         <v>29</v>
       </c>
       <c r="C168" s="39" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D168" s="42">
         <v>45471</v>
@@ -23721,7 +23781,7 @@
         <v>107307</v>
       </c>
       <c r="N168" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O168" s="33" t="s">
         <v>28</v>
@@ -23729,13 +23789,13 @@
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:15">
       <c r="A169" s="27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B169" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D169" s="42">
         <v>45471</v>
@@ -23770,7 +23830,7 @@
         <v>150713</v>
       </c>
       <c r="N169" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O169" s="33" t="s">
         <v>28</v>
@@ -23778,13 +23838,13 @@
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:15">
       <c r="A170" s="27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B170" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D170" s="42">
         <v>45329</v>
@@ -23819,7 +23879,7 @@
         <v>145943</v>
       </c>
       <c r="N170" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O170" s="33" t="s">
         <v>28</v>
@@ -23833,7 +23893,7 @@
         <v>38</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D171" s="42">
         <v>45475</v>
@@ -23868,7 +23928,7 @@
         <v>59890</v>
       </c>
       <c r="N171" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O171" s="33" t="s">
         <v>28</v>
@@ -23882,7 +23942,7 @@
         <v>38</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D172" s="42">
         <v>45495</v>
@@ -23917,7 +23977,7 @@
         <v>829444</v>
       </c>
       <c r="N172" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O172" s="33" t="s">
         <v>28</v>
@@ -23925,13 +23985,13 @@
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:15">
       <c r="A173" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B173" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D173" s="28">
         <v>45358</v>
@@ -23945,7 +24005,7 @@
         <v>2024</v>
       </c>
       <c r="G173" s="48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H173" s="30">
         <v>120</v>
@@ -23966,7 +24026,7 @@
         <v>510927</v>
       </c>
       <c r="N173" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O173" s="33" t="s">
         <v>28</v>
@@ -23974,13 +24034,13 @@
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:15">
       <c r="A174" s="27" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B174" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D174" s="28">
         <v>45329</v>
@@ -24015,7 +24075,7 @@
         <v>1091192</v>
       </c>
       <c r="N174" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O174" s="33" t="s">
         <v>28</v>
@@ -24023,13 +24083,13 @@
     </row>
     <row r="175" ht="15.75" customHeight="1" spans="1:15">
       <c r="A175" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B175" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D175" s="28">
         <v>45572</v>
@@ -24064,7 +24124,7 @@
         <v>611954</v>
       </c>
       <c r="N175" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O175" s="33" t="s">
         <v>28</v>
@@ -24072,13 +24132,13 @@
     </row>
     <row r="176" ht="15.75" customHeight="1" spans="1:15">
       <c r="A176" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B176" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D176" s="28">
         <v>45496</v>
@@ -24113,7 +24173,7 @@
         <v>188405</v>
       </c>
       <c r="N176" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O176" s="33" t="s">
         <v>28</v>
@@ -24121,13 +24181,13 @@
     </row>
     <row r="177" ht="15.75" customHeight="1" spans="1:15">
       <c r="A177" s="27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B177" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C177" s="27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D177" s="28">
         <v>45491</v>
@@ -24162,7 +24222,7 @@
         <v>855951</v>
       </c>
       <c r="N177" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O177" s="33" t="s">
         <v>28</v>
@@ -24170,13 +24230,13 @@
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:15">
       <c r="A178" s="27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B178" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C178" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D178" s="28">
         <v>45491</v>
@@ -24211,7 +24271,7 @@
         <v>172255</v>
       </c>
       <c r="N178" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O178" s="33" t="s">
         <v>28</v>
@@ -24219,13 +24279,13 @@
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:15">
       <c r="A179" s="27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B179" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D179" s="28">
         <v>45492</v>
@@ -24260,7 +24320,7 @@
         <v>215773</v>
       </c>
       <c r="N179" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O179" s="33" t="s">
         <v>28</v>
@@ -24268,13 +24328,13 @@
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:15">
       <c r="A180" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B180" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D180" s="28">
         <v>45463</v>
@@ -24313,7 +24373,7 @@
         <v>776177.482876712</v>
       </c>
       <c r="N180" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O180" s="33" t="s">
         <v>28</v>
@@ -24321,13 +24381,13 @@
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:15">
       <c r="A181" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B181" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D181" s="28">
         <v>45463</v>
@@ -24366,7 +24426,7 @@
         <v>736177.482876712</v>
       </c>
       <c r="N181" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O181" s="33" t="s">
         <v>28</v>
@@ -24374,13 +24434,13 @@
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:15">
       <c r="A182" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B182" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C182" s="27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D182" s="28">
         <v>45463</v>
@@ -24419,7 +24479,7 @@
         <v>736177.482876712</v>
       </c>
       <c r="N182" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O182" s="33" t="s">
         <v>28</v>
@@ -24427,13 +24487,13 @@
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:15">
       <c r="A183" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B183" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D183" s="28">
         <v>45498</v>
@@ -24468,7 +24528,7 @@
         <v>496345</v>
       </c>
       <c r="N183" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O183" s="33" t="s">
         <v>28</v>
@@ -24476,13 +24536,13 @@
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:15">
       <c r="A184" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B184" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D184" s="28">
         <v>45504</v>
@@ -24521,7 +24581,7 @@
         <v>115629.090958904</v>
       </c>
       <c r="N184" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O184" s="33" t="s">
         <v>28</v>
@@ -24535,7 +24595,7 @@
         <v>29</v>
       </c>
       <c r="C185" s="27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D185" s="28">
         <v>45505</v>
@@ -24573,7 +24633,7 @@
         <v>88440.6383561644</v>
       </c>
       <c r="N185" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O185" s="33" t="s">
         <v>28</v>
@@ -24587,7 +24647,7 @@
         <v>29</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D186" s="28">
         <v>45505</v>
@@ -24625,7 +24685,7 @@
         <v>88440.6383561644</v>
       </c>
       <c r="N186" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O186" s="33" t="s">
         <v>28</v>
@@ -24633,13 +24693,13 @@
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:15">
       <c r="A187" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B187" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D187" s="28">
         <v>45509</v>
@@ -24678,7 +24738,7 @@
         <v>713408.869863014</v>
       </c>
       <c r="N187" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O187" s="33" t="s">
         <v>28</v>
@@ -24686,13 +24746,13 @@
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:15">
       <c r="A188" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B188" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D188" s="28">
         <v>45509</v>
@@ -24731,7 +24791,7 @@
         <v>693408.869863014</v>
       </c>
       <c r="N188" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O188" s="33" t="s">
         <v>28</v>
@@ -24739,13 +24799,13 @@
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:15">
       <c r="A189" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B189" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D189" s="28">
         <v>45511</v>
@@ -24784,7 +24844,7 @@
         <v>676128.773972603</v>
       </c>
       <c r="N189" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O189" s="33" t="s">
         <v>28</v>
@@ -24798,7 +24858,7 @@
         <v>29</v>
       </c>
       <c r="C190" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D190" s="28">
         <v>45521</v>
@@ -24837,7 +24897,7 @@
         <v>33585.8536986301</v>
       </c>
       <c r="N190" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O190" s="33" t="s">
         <v>28</v>
@@ -24845,13 +24905,13 @@
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:15">
       <c r="A191" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B191" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C191" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D191" s="28">
         <v>45510</v>
@@ -24890,7 +24950,7 @@
         <v>435511.469452055</v>
       </c>
       <c r="N191" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O191" s="33" t="s">
         <v>28</v>
@@ -24898,13 +24958,13 @@
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:15">
       <c r="A192" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B192" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D192" s="28">
         <v>45532</v>
@@ -24943,7 +25003,7 @@
         <v>407767.018082192</v>
       </c>
       <c r="N192" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O192" s="33" t="s">
         <v>28</v>
@@ -24957,7 +25017,7 @@
         <v>34</v>
       </c>
       <c r="C193" s="27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D193" s="28">
         <v>45532</v>
@@ -24996,7 +25056,7 @@
         <v>349542.728767123</v>
       </c>
       <c r="N193" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O193" s="33" t="s">
         <v>28</v>
@@ -25010,7 +25070,7 @@
         <v>29</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D194" s="28">
         <v>45536</v>
@@ -25049,7 +25109,7 @@
         <v>159097.215342466</v>
       </c>
       <c r="N194" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O194" s="33" t="s">
         <v>28</v>
@@ -25063,7 +25123,7 @@
         <v>29</v>
       </c>
       <c r="C195" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D195" s="28">
         <v>45536</v>
@@ -25102,7 +25162,7 @@
         <v>159097.215342466</v>
       </c>
       <c r="N195" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O195" s="33" t="s">
         <v>28</v>
@@ -25116,7 +25176,7 @@
         <v>29</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D196" s="28">
         <v>45536</v>
@@ -25155,7 +25215,7 @@
         <v>76578.8832876712</v>
       </c>
       <c r="N196" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O196" s="33" t="s">
         <v>28</v>
@@ -25169,7 +25229,7 @@
         <v>34</v>
       </c>
       <c r="C197" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D197" s="28">
         <v>45536</v>
@@ -25208,7 +25268,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N197" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O197" s="33" t="s">
         <v>28</v>
@@ -25222,7 +25282,7 @@
         <v>34</v>
       </c>
       <c r="C198" s="27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D198" s="28">
         <v>45536</v>
@@ -25261,7 +25321,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N198" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O198" s="33" t="s">
         <v>28</v>
@@ -25275,7 +25335,7 @@
         <v>34</v>
       </c>
       <c r="C199" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D199" s="28">
         <v>45536</v>
@@ -25314,7 +25374,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N199" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O199" s="33" t="s">
         <v>28</v>
@@ -25328,7 +25388,7 @@
         <v>34</v>
       </c>
       <c r="C200" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D200" s="28">
         <v>45536</v>
@@ -25367,7 +25427,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N200" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O200" s="33" t="s">
         <v>28</v>
@@ -25381,7 +25441,7 @@
         <v>34</v>
       </c>
       <c r="C201" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D201" s="28">
         <v>45536</v>
@@ -25420,7 +25480,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N201" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O201" s="33" t="s">
         <v>28</v>
@@ -25434,7 +25494,7 @@
         <v>34</v>
       </c>
       <c r="C202" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D202" s="28">
         <v>45536</v>
@@ -25473,7 +25533,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N202" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O202" s="33" t="s">
         <v>28</v>
@@ -25487,7 +25547,7 @@
         <v>34</v>
       </c>
       <c r="C203" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D203" s="28">
         <v>45536</v>
@@ -25526,7 +25586,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N203" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O203" s="33" t="s">
         <v>28</v>
@@ -25540,7 +25600,7 @@
         <v>34</v>
       </c>
       <c r="C204" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D204" s="28">
         <v>45536</v>
@@ -25579,7 +25639,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N204" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O204" s="33" t="s">
         <v>28</v>
@@ -25593,7 +25653,7 @@
         <v>34</v>
       </c>
       <c r="C205" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D205" s="28">
         <v>45536</v>
@@ -25632,7 +25692,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N205" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O205" s="33" t="s">
         <v>28</v>
@@ -25646,7 +25706,7 @@
         <v>34</v>
       </c>
       <c r="C206" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D206" s="28">
         <v>45536</v>
@@ -25685,7 +25745,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N206" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O206" s="33" t="s">
         <v>28</v>
@@ -25699,7 +25759,7 @@
         <v>34</v>
       </c>
       <c r="C207" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D207" s="28">
         <v>45536</v>
@@ -25738,7 +25798,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N207" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O207" s="33" t="s">
         <v>28</v>
@@ -25752,7 +25812,7 @@
         <v>34</v>
       </c>
       <c r="C208" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D208" s="28">
         <v>45536</v>
@@ -25791,7 +25851,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N208" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O208" s="33" t="s">
         <v>28</v>
@@ -25805,7 +25865,7 @@
         <v>34</v>
       </c>
       <c r="C209" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D209" s="28">
         <v>45536</v>
@@ -25844,7 +25904,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N209" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O209" s="33" t="s">
         <v>28</v>
@@ -25858,7 +25918,7 @@
         <v>34</v>
       </c>
       <c r="C210" s="27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D210" s="28">
         <v>45536</v>
@@ -25897,7 +25957,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N210" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O210" s="33" t="s">
         <v>28</v>
@@ -25911,7 +25971,7 @@
         <v>34</v>
       </c>
       <c r="C211" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D211" s="28">
         <v>45536</v>
@@ -25950,7 +26010,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N211" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O211" s="33" t="s">
         <v>28</v>
@@ -25964,7 +26024,7 @@
         <v>34</v>
       </c>
       <c r="C212" s="27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D212" s="28">
         <v>45536</v>
@@ -26003,7 +26063,7 @@
         <v>342138.605616438</v>
       </c>
       <c r="N212" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O212" s="33" t="s">
         <v>28</v>
@@ -26017,7 +26077,7 @@
         <v>34</v>
       </c>
       <c r="C213" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D213" s="28">
         <v>45536</v>
@@ -26056,7 +26116,7 @@
         <v>716777.893561644</v>
       </c>
       <c r="N213" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O213" s="33" t="s">
         <v>28</v>
@@ -26070,7 +26130,7 @@
         <v>34</v>
       </c>
       <c r="C214" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D214" s="28">
         <v>45536</v>
@@ -26109,7 +26169,7 @@
         <v>716777.893561644</v>
       </c>
       <c r="N214" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O214" s="33" t="s">
         <v>28</v>
@@ -26123,7 +26183,7 @@
         <v>34</v>
       </c>
       <c r="C215" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D215" s="28">
         <v>45536</v>
@@ -26162,7 +26222,7 @@
         <v>716777.893561644</v>
       </c>
       <c r="N215" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O215" s="33" t="s">
         <v>28</v>
@@ -26176,7 +26236,7 @@
         <v>34</v>
       </c>
       <c r="C216" s="27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D216" s="28">
         <v>45536</v>
@@ -26215,7 +26275,7 @@
         <v>275296.526164384</v>
       </c>
       <c r="N216" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O216" s="33" t="s">
         <v>28</v>
@@ -26229,7 +26289,7 @@
         <v>34</v>
       </c>
       <c r="C217" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D217" s="28">
         <v>45536</v>
@@ -26268,7 +26328,7 @@
         <v>99342.7617808219</v>
       </c>
       <c r="N217" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O217" s="33" t="s">
         <v>28</v>
@@ -26276,13 +26336,13 @@
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:15">
       <c r="A218" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B218" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D218" s="28">
         <v>45534</v>
@@ -26321,7 +26381,7 @@
         <v>168661.443150685</v>
       </c>
       <c r="N218" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O218" s="33" t="s">
         <v>28</v>
@@ -26329,13 +26389,13 @@
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:15">
       <c r="A219" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B219" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C219" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D219" s="28">
         <v>45534</v>
@@ -26374,7 +26434,7 @@
         <v>168661.443150685</v>
       </c>
       <c r="N219" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O219" s="33" t="s">
         <v>28</v>
@@ -26388,7 +26448,7 @@
         <v>38</v>
       </c>
       <c r="C220" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D220" s="28">
         <v>45538</v>
@@ -26427,7 +26487,7 @@
         <v>2158404.69068493</v>
       </c>
       <c r="N220" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O220" s="33" t="s">
         <v>28</v>
@@ -26435,13 +26495,13 @@
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:15">
       <c r="A221" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B221" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C221" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D221" s="28">
         <v>45539</v>
@@ -26480,7 +26540,7 @@
         <v>881218.412876712</v>
       </c>
       <c r="N221" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O221" s="33" t="s">
         <v>28</v>
@@ -26488,13 +26548,13 @@
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:15">
       <c r="A222" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B222" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D222" s="28">
         <v>45539</v>
@@ -26533,7 +26593,7 @@
         <v>921218.412876712</v>
       </c>
       <c r="N222" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O222" s="33" t="s">
         <v>28</v>
@@ -26541,13 +26601,13 @@
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:15">
       <c r="A223" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B223" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D223" s="28">
         <v>45539</v>
@@ -26586,7 +26646,7 @@
         <v>901218.412876712</v>
       </c>
       <c r="N223" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O223" s="33" t="s">
         <v>28</v>
@@ -26594,13 +26654,13 @@
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:15">
       <c r="A224" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B224" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D224" s="28">
         <v>45538</v>
@@ -26639,7 +26699,7 @@
         <v>863736.810547945</v>
       </c>
       <c r="N224" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O224" s="33" t="s">
         <v>28</v>
@@ -29500,7 +29560,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>11</v>
@@ -29524,7 +29584,7 @@
         <v>15</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>18</v>
@@ -29536,7 +29596,7 @@
         <v>22</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
@@ -29600,7 +29660,7 @@
         <v>45261</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
@@ -29664,7 +29724,7 @@
         <v>45265</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
@@ -29728,7 +29788,7 @@
         <v>45323</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
@@ -29790,7 +29850,7 @@
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -29852,7 +29912,7 @@
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
@@ -29914,7 +29974,7 @@
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -57314,45 +57374,45 @@
     <row r="5" customHeight="1" spans="2:14">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:14">
       <c r="B6" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C6" s="3">
         <f>SUMIF('NEW BUSINES'!$Q$3:$Q$59,C4,'NEW BUSINES'!$J$3:$J$67)</f>
@@ -57405,7 +57465,7 @@
     </row>
     <row r="7" customHeight="1" spans="2:15">
       <c r="B7" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C7" s="3" t="e">
         <f>SUMIF(ENDORSMENTS!#REF!,C4,ENDORSMENTS!$M$2:$M$123)</f>
@@ -57459,7 +57519,7 @@
     </row>
     <row r="8" customHeight="1" spans="2:14">
       <c r="B8" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C8" s="4">
         <f>SUMIF(ProActiv!$I$2:$I$5,C4,ProActiv!$C$2:$C$5)</f>
@@ -57513,7 +57573,7 @@
     <row r="9" customHeight="1" spans="1:25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C9" s="7" t="e">
         <f t="shared" ref="C9:N9" si="0">SUM(C6:C8)</f>
@@ -57597,12 +57657,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/WRITTEN PREMIUM 2024.xlsx
+++ b/WRITTEN PREMIUM 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG SHARK TECHNOLOGY\OneDrive\Documents\Eden Care\Sales_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF86D17E-A4E4-4C0F-8C4F-CE1D0E0EE122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2E9F4-2817-4A7E-833A-5CE8B19B7F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="3420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW BUSINES" sheetId="1" r:id="rId1"/>
@@ -1429,12 +1429,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="\ #\ ###\ ###"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="\ #\ ###\ ###"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1448,14 +1448,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1463,46 +1463,46 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1514,19 +1514,19 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.6"/>
       <color rgb="FF202223"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1785,15 +1785,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1827,48 +1827,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1879,31 +1879,31 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1912,16 +1912,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1930,8 +1930,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1940,17 +1940,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -2196,9 +2196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="X2" s="18">
         <f ca="1">TODAY()-O2</f>
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Y2" s="18">
         <f>O2-W2</f>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="X38" s="18">
         <f t="shared" ref="X38:X43" ca="1" si="14">TODAY()-O38</f>
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Y38" s="18">
         <f t="shared" ref="Y38:Y43" si="15">O38-W38</f>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="X39" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Y39" s="18">
         <f t="shared" si="15"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="X40" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Y40" s="18">
         <f t="shared" si="15"/>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="X41" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Y41" s="18">
         <f t="shared" si="15"/>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="X42" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Y42" s="18">
         <f t="shared" si="15"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="X43" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Y43" s="18">
         <f t="shared" si="15"/>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="X45" s="18">
         <f t="shared" ref="X45:X55" ca="1" si="20">TODAY()-O45</f>
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Y45" s="18">
         <f t="shared" ref="Y45:Y55" si="21">O45-W45</f>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="X46" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Y46" s="18">
         <f t="shared" si="21"/>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="X47" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Y47" s="18">
         <f t="shared" si="21"/>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="X48" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Y48" s="18">
         <f t="shared" si="21"/>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="X49" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Y49" s="18">
         <f t="shared" si="21"/>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="X50" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Y50" s="18">
         <f t="shared" si="21"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="X51" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y51" s="18">
         <f t="shared" si="21"/>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="X52" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Y52" s="18">
         <f t="shared" si="21"/>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="X53" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Y53" s="18">
         <f t="shared" si="21"/>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="X54" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Y54" s="18">
         <f t="shared" si="21"/>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="X55" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Y55" s="18">
         <f t="shared" si="21"/>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="X57" s="18">
         <f t="shared" ref="X57:X100" ca="1" si="26">TODAY()-O57</f>
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Y57" s="18">
         <f>O57-W57</f>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="X58" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Y58" s="18">
         <f>O58-W58</f>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="X59" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y59" s="18">
         <f>O59-W59</f>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="X60" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y60" s="18">
         <f>O60-W60</f>
@@ -7370,7 +7370,7 @@
       <c r="W61" s="75"/>
       <c r="X61" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Y61" s="18"/>
       <c r="Z61" s="59">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="X62" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Y62" s="18">
         <f>O62-W62</f>
@@ -7547,7 +7547,7 @@
       <c r="W63" s="75"/>
       <c r="X63" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Y63" s="18"/>
       <c r="Z63" s="59">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="X64" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y64" s="18">
         <f t="shared" ref="Y64:Y72" si="27">O64-W64</f>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="X65" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Y65" s="18">
         <f t="shared" si="27"/>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="X66" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Y66" s="18">
         <f t="shared" si="27"/>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="X67" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y67" s="18">
         <f t="shared" si="27"/>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="X68" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Y68" s="18">
         <f t="shared" si="27"/>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="X69" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Y69" s="18">
         <f t="shared" si="27"/>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="X70" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y70" s="18">
         <f t="shared" si="27"/>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="X71" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y71" s="18">
         <f t="shared" si="27"/>
@@ -8379,7 +8379,7 @@
       <c r="W72" s="75"/>
       <c r="X72" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y72" s="18">
         <f t="shared" si="27"/>
@@ -8475,7 +8475,7 @@
       <c r="W73" s="75"/>
       <c r="X73" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Y73" s="18">
         <v>0</v>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="X74" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74:Y100" si="32">O74-W74</f>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="X75" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y75" s="18">
         <f t="shared" si="32"/>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="X76" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y76" s="18">
         <f t="shared" si="32"/>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="X77" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y77" s="18">
         <f t="shared" si="32"/>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="X78" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Y78" s="18">
         <f t="shared" si="32"/>
@@ -9029,7 +9029,7 @@
       </c>
       <c r="X79" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y79" s="18">
         <f t="shared" si="32"/>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="X80" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Y80" s="18">
         <f t="shared" si="32"/>
@@ -9214,7 +9214,7 @@
       </c>
       <c r="X81" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y81" s="18">
         <f t="shared" si="32"/>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="X82" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y82" s="18">
         <f t="shared" si="32"/>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="X83" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Y83" s="18">
         <f t="shared" si="32"/>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="X84" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y84" s="18">
         <f t="shared" si="32"/>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="X85" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Y85" s="18">
         <f t="shared" si="32"/>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="X86" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y86" s="18">
         <f t="shared" si="32"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="X87" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y87" s="18">
         <f t="shared" si="32"/>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="X88" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y88" s="18">
         <f t="shared" si="32"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="X89" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y89" s="18">
         <f t="shared" si="32"/>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="X90" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y90" s="18">
         <f t="shared" si="32"/>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="X91" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Y91" s="18">
         <f t="shared" si="32"/>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="X92" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" si="32"/>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="X93" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Y93" s="54">
         <f t="shared" si="32"/>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="X94" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Y94" s="54">
         <f t="shared" si="32"/>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="X95" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Y95" s="54">
         <f t="shared" si="32"/>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="X96" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Y96" s="54">
         <f t="shared" si="32"/>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="X97" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Y97" s="54">
         <f t="shared" si="32"/>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="X98" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Y98" s="54">
         <f t="shared" si="32"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="X99" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Y99" s="54">
         <f t="shared" si="32"/>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="X100" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Y100" s="54">
         <f t="shared" si="32"/>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="X102" s="54">
         <f t="shared" ref="X102:X123" ca="1" si="37">TODAY()-O102</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y102" s="54">
         <f t="shared" ref="Y102:Y123" si="38">O102-W102</f>
@@ -11182,7 +11182,7 @@
       </c>
       <c r="X103" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y103" s="54">
         <f t="shared" si="38"/>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="X104" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Y104" s="54">
         <f t="shared" si="38"/>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="X105" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y105" s="54">
         <f t="shared" si="38"/>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="X106" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y106" s="54">
         <f t="shared" si="38"/>
@@ -11538,7 +11538,7 @@
       </c>
       <c r="X107" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y107" s="54">
         <f t="shared" si="38"/>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="X108" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y108" s="54">
         <f t="shared" si="38"/>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="X109" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y109" s="54">
         <f t="shared" si="38"/>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="X110" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y110" s="54">
         <f t="shared" si="38"/>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="X111" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y111" s="54">
         <f t="shared" si="38"/>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="X112" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y112" s="54">
         <f t="shared" si="38"/>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="X113" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Y113" s="54">
         <f t="shared" si="38"/>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="X114" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y114" s="54">
         <f t="shared" si="38"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="X115" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y115" s="54">
         <f t="shared" si="38"/>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="X116" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y116" s="54">
         <f t="shared" si="38"/>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="X117" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Y117" s="54">
         <f t="shared" si="38"/>
@@ -12512,7 +12512,7 @@
       </c>
       <c r="X118" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Y118" s="54">
         <f t="shared" si="38"/>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="X119" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y119" s="54">
         <f t="shared" si="38"/>
@@ -12682,7 +12682,7 @@
       </c>
       <c r="X120" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y120" s="54">
         <f t="shared" si="38"/>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="X121" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Y121" s="54">
         <f t="shared" si="38"/>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="X122" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y122" s="54">
         <f t="shared" si="38"/>
@@ -12950,7 +12950,7 @@
       </c>
       <c r="X123" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y123" s="54">
         <f t="shared" si="38"/>
@@ -14140,8 +14140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14427,8 +14427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q1127"/>
   <sheetViews>
-    <sheetView topLeftCell="C153" workbookViewId="0">
-      <selection activeCell="J232" sqref="J232"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/WRITTEN PREMIUM 2024.xlsx
+++ b/WRITTEN PREMIUM 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG SHARK TECHNOLOGY\OneDrive\Documents\Eden Care\Sales_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2E9F4-2817-4A7E-833A-5CE8B19B7F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD74CCD-6B76-4E3C-BF75-6ABB8D4023B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="3420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="15345" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW BUSINES" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NEW BUSINES'!$A$2:$AE$126</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">Query1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2196,9 +2183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1054"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2388,7 +2375,7 @@
       </c>
       <c r="X2" s="18">
         <f ca="1">TODAY()-O2</f>
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Y2" s="18">
         <f>O2-W2</f>
@@ -5274,7 +5261,7 @@
       </c>
       <c r="X38" s="18">
         <f t="shared" ref="X38:X43" ca="1" si="14">TODAY()-O38</f>
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Y38" s="18">
         <f t="shared" ref="Y38:Y43" si="15">O38-W38</f>
@@ -5364,7 +5351,7 @@
       </c>
       <c r="X39" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Y39" s="18">
         <f t="shared" si="15"/>
@@ -5455,7 +5442,7 @@
       </c>
       <c r="X40" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Y40" s="18">
         <f t="shared" si="15"/>
@@ -5545,7 +5532,7 @@
       </c>
       <c r="X41" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Y41" s="18">
         <f t="shared" si="15"/>
@@ -5639,7 +5626,7 @@
       </c>
       <c r="X42" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Y42" s="18">
         <f t="shared" si="15"/>
@@ -5733,7 +5720,7 @@
       </c>
       <c r="X43" s="18">
         <f t="shared" ca="1" si="14"/>
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Y43" s="18">
         <f t="shared" si="15"/>
@@ -5901,7 +5888,7 @@
       </c>
       <c r="X45" s="18">
         <f t="shared" ref="X45:X55" ca="1" si="20">TODAY()-O45</f>
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Y45" s="18">
         <f t="shared" ref="Y45:Y55" si="21">O45-W45</f>
@@ -5995,7 +5982,7 @@
       </c>
       <c r="X46" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Y46" s="18">
         <f t="shared" si="21"/>
@@ -6089,7 +6076,7 @@
       </c>
       <c r="X47" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Y47" s="18">
         <f t="shared" si="21"/>
@@ -6183,7 +6170,7 @@
       </c>
       <c r="X48" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Y48" s="18">
         <f t="shared" si="21"/>
@@ -6278,7 +6265,7 @@
       </c>
       <c r="X49" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Y49" s="18">
         <f t="shared" si="21"/>
@@ -6368,7 +6355,7 @@
       </c>
       <c r="X50" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Y50" s="18">
         <f t="shared" si="21"/>
@@ -6463,7 +6450,7 @@
       </c>
       <c r="X51" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Y51" s="18">
         <f t="shared" si="21"/>
@@ -6556,7 +6543,7 @@
       </c>
       <c r="X52" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Y52" s="18">
         <f t="shared" si="21"/>
@@ -6646,7 +6633,7 @@
       </c>
       <c r="X53" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Y53" s="18">
         <f t="shared" si="21"/>
@@ -6741,7 +6728,7 @@
       </c>
       <c r="X54" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Y54" s="18">
         <f t="shared" si="21"/>
@@ -6835,7 +6822,7 @@
       </c>
       <c r="X55" s="18">
         <f t="shared" ca="1" si="20"/>
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Y55" s="18">
         <f t="shared" si="21"/>
@@ -7005,7 +6992,7 @@
       </c>
       <c r="X57" s="18">
         <f t="shared" ref="X57:X100" ca="1" si="26">TODAY()-O57</f>
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Y57" s="18">
         <f>O57-W57</f>
@@ -7096,7 +7083,7 @@
       </c>
       <c r="X58" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Y58" s="18">
         <f>O58-W58</f>
@@ -7186,7 +7173,7 @@
       </c>
       <c r="X59" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Y59" s="18">
         <f>O59-W59</f>
@@ -7278,7 +7265,7 @@
       </c>
       <c r="X60" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Y60" s="18">
         <f>O60-W60</f>
@@ -7370,7 +7357,7 @@
       <c r="W61" s="75"/>
       <c r="X61" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Y61" s="18"/>
       <c r="Z61" s="59">
@@ -7459,7 +7446,7 @@
       </c>
       <c r="X62" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Y62" s="18">
         <f>O62-W62</f>
@@ -7547,7 +7534,7 @@
       <c r="W63" s="75"/>
       <c r="X63" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Y63" s="18"/>
       <c r="Z63" s="59">
@@ -7639,7 +7626,7 @@
       </c>
       <c r="X64" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Y64" s="18">
         <f t="shared" ref="Y64:Y72" si="27">O64-W64</f>
@@ -7729,7 +7716,7 @@
       </c>
       <c r="X65" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Y65" s="18">
         <f t="shared" si="27"/>
@@ -7823,7 +7810,7 @@
       </c>
       <c r="X66" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Y66" s="18">
         <f t="shared" si="27"/>
@@ -7919,7 +7906,7 @@
       </c>
       <c r="X67" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Y67" s="18">
         <f t="shared" si="27"/>
@@ -8012,7 +7999,7 @@
       </c>
       <c r="X68" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Y68" s="18">
         <f t="shared" si="27"/>
@@ -8102,7 +8089,7 @@
       </c>
       <c r="X69" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Y69" s="18">
         <f t="shared" si="27"/>
@@ -8195,7 +8182,7 @@
       </c>
       <c r="X70" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Y70" s="18">
         <f t="shared" si="27"/>
@@ -8289,7 +8276,7 @@
       </c>
       <c r="X71" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Y71" s="18">
         <f t="shared" si="27"/>
@@ -8379,7 +8366,7 @@
       <c r="W72" s="75"/>
       <c r="X72" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Y72" s="18">
         <f t="shared" si="27"/>
@@ -8475,7 +8462,7 @@
       <c r="W73" s="75"/>
       <c r="X73" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Y73" s="18">
         <v>0</v>
@@ -8568,7 +8555,7 @@
       </c>
       <c r="X74" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Y74" s="18">
         <f t="shared" ref="Y74:Y100" si="32">O74-W74</f>
@@ -8661,7 +8648,7 @@
       </c>
       <c r="X75" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Y75" s="18">
         <f t="shared" si="32"/>
@@ -8751,7 +8738,7 @@
       </c>
       <c r="X76" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Y76" s="18">
         <f t="shared" si="32"/>
@@ -8841,7 +8828,7 @@
       </c>
       <c r="X77" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Y77" s="18">
         <f t="shared" si="32"/>
@@ -8935,7 +8922,7 @@
       </c>
       <c r="X78" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Y78" s="18">
         <f t="shared" si="32"/>
@@ -9029,7 +9016,7 @@
       </c>
       <c r="X79" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Y79" s="18">
         <f t="shared" si="32"/>
@@ -9123,7 +9110,7 @@
       </c>
       <c r="X80" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Y80" s="18">
         <f t="shared" si="32"/>
@@ -9214,7 +9201,7 @@
       </c>
       <c r="X81" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Y81" s="18">
         <f t="shared" si="32"/>
@@ -9304,7 +9291,7 @@
       </c>
       <c r="X82" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Y82" s="18">
         <f t="shared" si="32"/>
@@ -9395,7 +9382,7 @@
       </c>
       <c r="X83" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Y83" s="18">
         <f t="shared" si="32"/>
@@ -9485,7 +9472,7 @@
       </c>
       <c r="X84" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Y84" s="18">
         <f t="shared" si="32"/>
@@ -9579,7 +9566,7 @@
       </c>
       <c r="X85" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Y85" s="18">
         <f t="shared" si="32"/>
@@ -9669,7 +9656,7 @@
       </c>
       <c r="X86" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Y86" s="18">
         <f t="shared" si="32"/>
@@ -9759,7 +9746,7 @@
       </c>
       <c r="X87" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Y87" s="18">
         <f t="shared" si="32"/>
@@ -9849,7 +9836,7 @@
       </c>
       <c r="X88" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Y88" s="18">
         <f t="shared" si="32"/>
@@ -9939,7 +9926,7 @@
       </c>
       <c r="X89" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Y89" s="18">
         <f t="shared" si="32"/>
@@ -10029,7 +10016,7 @@
       </c>
       <c r="X90" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Y90" s="18">
         <f t="shared" si="32"/>
@@ -10119,7 +10106,7 @@
       </c>
       <c r="X91" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Y91" s="18">
         <f t="shared" si="32"/>
@@ -10211,7 +10198,7 @@
       </c>
       <c r="X92" s="18">
         <f t="shared" ca="1" si="26"/>
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Y92" s="18">
         <f t="shared" si="32"/>
@@ -10301,7 +10288,7 @@
       </c>
       <c r="X93" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Y93" s="54">
         <f t="shared" si="32"/>
@@ -10396,7 +10383,7 @@
       </c>
       <c r="X94" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Y94" s="54">
         <f t="shared" si="32"/>
@@ -10484,7 +10471,7 @@
       </c>
       <c r="X95" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Y95" s="54">
         <f t="shared" si="32"/>
@@ -10580,7 +10567,7 @@
       </c>
       <c r="X96" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Y96" s="54">
         <f t="shared" si="32"/>
@@ -10668,7 +10655,7 @@
       </c>
       <c r="X97" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Y97" s="54">
         <f t="shared" si="32"/>
@@ -10761,7 +10748,7 @@
       </c>
       <c r="X98" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Y98" s="54">
         <f t="shared" si="32"/>
@@ -10850,7 +10837,7 @@
       </c>
       <c r="X99" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Y99" s="54">
         <f t="shared" si="32"/>
@@ -10941,7 +10928,7 @@
       </c>
       <c r="X100" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Y100" s="54">
         <f t="shared" si="32"/>
@@ -11095,7 +11082,7 @@
       </c>
       <c r="X102" s="54">
         <f t="shared" ref="X102:X123" ca="1" si="37">TODAY()-O102</f>
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Y102" s="54">
         <f t="shared" ref="Y102:Y123" si="38">O102-W102</f>
@@ -11182,7 +11169,7 @@
       </c>
       <c r="X103" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y103" s="54">
         <f t="shared" si="38"/>
@@ -11269,7 +11256,7 @@
       </c>
       <c r="X104" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y104" s="54">
         <f t="shared" si="38"/>
@@ -11362,7 +11349,7 @@
       </c>
       <c r="X105" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y105" s="54">
         <f t="shared" si="38"/>
@@ -11450,7 +11437,7 @@
       </c>
       <c r="X106" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y106" s="54">
         <f t="shared" si="38"/>
@@ -11538,7 +11525,7 @@
       </c>
       <c r="X107" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y107" s="54">
         <f t="shared" si="38"/>
@@ -11631,7 +11618,7 @@
       </c>
       <c r="X108" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y108" s="54">
         <f t="shared" si="38"/>
@@ -11718,7 +11705,7 @@
       </c>
       <c r="X109" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y109" s="54">
         <f t="shared" si="38"/>
@@ -11805,7 +11792,7 @@
       </c>
       <c r="X110" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y110" s="54">
         <f t="shared" si="38"/>
@@ -11895,7 +11882,7 @@
       </c>
       <c r="X111" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y111" s="54">
         <f t="shared" si="38"/>
@@ -11982,7 +11969,7 @@
       </c>
       <c r="X112" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y112" s="54">
         <f t="shared" si="38"/>
@@ -12069,7 +12056,7 @@
       </c>
       <c r="X113" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Y113" s="54">
         <f t="shared" si="38"/>
@@ -12156,7 +12143,7 @@
       </c>
       <c r="X114" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Y114" s="54">
         <f t="shared" si="38"/>
@@ -12243,7 +12230,7 @@
       </c>
       <c r="X115" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Y115" s="54">
         <f t="shared" si="38"/>
@@ -12330,7 +12317,7 @@
       </c>
       <c r="X116" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Y116" s="54">
         <f t="shared" si="38"/>
@@ -12421,7 +12408,7 @@
       </c>
       <c r="X117" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y117" s="54">
         <f t="shared" si="38"/>
@@ -12512,7 +12499,7 @@
       </c>
       <c r="X118" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Y118" s="54">
         <f t="shared" si="38"/>
@@ -12597,7 +12584,7 @@
       </c>
       <c r="X119" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Y119" s="54">
         <f t="shared" si="38"/>
@@ -12682,7 +12669,7 @@
       </c>
       <c r="X120" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Y120" s="54">
         <f t="shared" si="38"/>
@@ -12767,7 +12754,7 @@
       </c>
       <c r="X121" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Y121" s="54">
         <f t="shared" si="38"/>
@@ -12858,7 +12845,7 @@
       </c>
       <c r="X122" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Y122" s="54">
         <f t="shared" si="38"/>
@@ -12950,7 +12937,7 @@
       </c>
       <c r="X123" s="54">
         <f t="shared" ca="1" si="37"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Y123" s="54">
         <f t="shared" si="38"/>
@@ -14140,7 +14127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -14427,9 +14414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q1127"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -14452,7 +14437,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
